--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_6_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_6_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1750298.879089353</v>
+        <v>-1753333.211166205</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8656875.781858984</v>
+        <v>8656875.781858996</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>269.8196399503739</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>114.3220478191684</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>56.53859329084214</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>42.15558353724209</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>191.5139908715583</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>63.10802839794265</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -911,7 +911,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>277.9437615581081</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>9.790440613649634</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>147.267552145388</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1136,19 +1136,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>10.09206808754261</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>339.6099536208481</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>155.4526127311942</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>31.32258765632123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1424,7 +1424,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1543,10 +1543,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>17.39684028807453</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1585,16 +1585,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>34.07924883795934</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634819</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1625,7 +1625,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292658</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>58.65179830488227</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>139.3640742663476</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>33.51083321952642</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2062,10 +2062,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>173.1942117550905</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>186.8788185287358</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2333,10 +2333,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873207</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292669</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881763</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851125</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247777</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734104741</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414548</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>81.16623893992191</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004771</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>189.769025331442</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2536,13 +2536,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>126.095523708382</v>
       </c>
     </row>
     <row r="26">
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2713,25 +2713,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E28" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308917</v>
       </c>
       <c r="G28" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H28" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652614</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y28" t="n">
         <v>194.3000058600551</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,10 +2950,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E31" t="n">
         <v>122.1493151545295</v>
@@ -2962,13 +2962,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H31" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652614</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3013,10 +3013,10 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600551</v>
+        <v>194.3000058600553</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,10 +3187,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545295</v>
@@ -3199,7 +3199,7 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3433,7 +3433,7 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
         <v>141.2394908002292</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652587</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808202</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3478,7 +3478,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,7 +3676,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
         <v>56.98118882652581</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444134</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695454</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576159</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881302</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128528</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3867,10 +3867,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364131</v>
       </c>
       <c r="T42" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3046392154442</v>
       </c>
       <c r="U42" t="n">
         <v>225.7478006422472</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898982</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065888</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261733</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545301</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308922</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002298</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541847</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652603</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096053</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352492</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317889</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445519</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969981</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>194.3000058600557</v>
       </c>
     </row>
     <row r="44">
@@ -3992,7 +3992,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444134</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695454</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576159</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128528</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,10 +4104,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364131</v>
       </c>
       <c r="T45" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3046392154442</v>
       </c>
       <c r="U45" t="n">
         <v>225.7478006422472</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898982</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065888</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261733</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545301</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308922</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002298</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541847</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652604</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096053</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352492</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317889</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.238350844552</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969981</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.3000058600551</v>
+        <v>194.3000058600557</v>
       </c>
     </row>
   </sheetData>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1364.743608328862</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="C2" t="n">
-        <v>995.7810913884502</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="D2" t="n">
-        <v>637.5153927816998</v>
+        <v>1225.112576750049</v>
       </c>
       <c r="E2" t="n">
-        <v>637.5153927816998</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F2" t="n">
-        <v>226.5294879920922</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>226.5294879920922</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>111.0526720131343</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4358,22 +4358,22 @@
         <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U2" t="n">
-        <v>2048.575150942547</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V2" t="n">
-        <v>1717.512263598976</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W2" t="n">
-        <v>1364.743608328862</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="X2" t="n">
-        <v>1364.743608328862</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="Y2" t="n">
-        <v>1364.743608328862</v>
+        <v>1583.378275356799</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,19 +4410,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200.8329293182748</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C4" t="n">
-        <v>200.8329293182748</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D4" t="n">
-        <v>200.8329293182748</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>471.4038777286579</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U4" t="n">
-        <v>471.4038777286579</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V4" t="n">
-        <v>471.4038777286579</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W4" t="n">
-        <v>428.8224802162921</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X4" t="n">
-        <v>200.8329293182748</v>
+        <v>320.3920853967602</v>
       </c>
       <c r="Y4" t="n">
-        <v>200.8329293182748</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2107.607341885688</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C5" t="n">
-        <v>2107.607341885688</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4595,22 +4595,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V5" t="n">
-        <v>2388.358616186807</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W5" t="n">
-        <v>2388.358616186807</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X5" t="n">
-        <v>2107.607341885688</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="Y5" t="n">
-        <v>2107.607341885688</v>
+        <v>1485.892406545185</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4647,13 +4647,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4665,28 +4665,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>210.7222632714563</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="C7" t="n">
-        <v>210.7222632714563</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="D7" t="n">
-        <v>210.7222632714563</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>210.7222632714563</v>
+        <v>579.3738810292748</v>
       </c>
       <c r="Y7" t="n">
-        <v>210.7222632714563</v>
+        <v>358.5813018857447</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1745.334734821698</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="C8" t="n">
-        <v>1376.372217881286</v>
+        <v>1348.549746658564</v>
       </c>
       <c r="D8" t="n">
-        <v>1018.106519274536</v>
+        <v>1348.549746658564</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762914</v>
+        <v>962.76149406032</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4802,19 +4802,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2478.514423990285</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V8" t="n">
-        <v>2478.514423990285</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W8" t="n">
-        <v>2478.514423990285</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X8" t="n">
-        <v>2135.474066797509</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="Y8" t="n">
-        <v>1745.334734821698</v>
+        <v>1717.512263598976</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.0730876294286</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="C10" t="n">
-        <v>498.1369047015218</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="D10" t="n">
-        <v>348.0202652891861</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="E10" t="n">
-        <v>348.0202652891861</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="F10" t="n">
-        <v>348.0202652891861</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="G10" t="n">
-        <v>348.0202652891861</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600561</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="Y10" t="n">
-        <v>667.0730876294286</v>
+        <v>210.9658229629848</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5039,52 +5039,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1236.699401366028</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M11" t="n">
-        <v>1770.231306037953</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N11" t="n">
-        <v>2602.177459903277</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5109,10 +5109,10 @@
         <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089896</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468573</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
@@ -5124,7 +5124,7 @@
         <v>427.5025029193591</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320246</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>596.6625674470428</v>
+        <v>803.8133219477185</v>
       </c>
       <c r="C13" t="n">
-        <v>427.7263845191359</v>
+        <v>803.8133219477185</v>
       </c>
       <c r="D13" t="n">
-        <v>427.7263845191359</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="E13" t="n">
-        <v>427.7263845191359</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F13" t="n">
-        <v>280.8364370212255</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G13" t="n">
-        <v>113.1336003959445</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5203,46 +5203,46 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927041</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892253</v>
       </c>
       <c r="N13" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598118</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518531</v>
       </c>
       <c r="P13" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952191</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104705</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862233</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.65758193153</v>
+        <v>1866.513008862233</v>
       </c>
       <c r="T13" t="n">
-        <v>1542.890966501056</v>
+        <v>1644.746393431759</v>
       </c>
       <c r="U13" t="n">
-        <v>1253.788099626699</v>
+        <v>1355.643526557403</v>
       </c>
       <c r="V13" t="n">
-        <v>999.1036114208126</v>
+        <v>1321.220042882696</v>
       </c>
       <c r="W13" t="n">
-        <v>999.1036114208126</v>
+        <v>1031.802872845736</v>
       </c>
       <c r="X13" t="n">
-        <v>999.1036114208126</v>
+        <v>803.8133219477185</v>
       </c>
       <c r="Y13" t="n">
-        <v>778.3110322772825</v>
+        <v>803.8133219477185</v>
       </c>
     </row>
     <row r="14">
@@ -5255,49 +5255,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089263</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M14" t="n">
-        <v>2216.257005193957</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N14" t="n">
-        <v>3196.009277420604</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5397,10 +5397,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>539.8079542252655</v>
+        <v>301.0224619425389</v>
       </c>
       <c r="C16" t="n">
-        <v>539.8079542252655</v>
+        <v>301.0224619425389</v>
       </c>
       <c r="D16" t="n">
-        <v>389.6913148129298</v>
+        <v>301.0224619425389</v>
       </c>
       <c r="E16" t="n">
-        <v>241.7782212305366</v>
+        <v>301.0224619425389</v>
       </c>
       <c r="F16" t="n">
-        <v>241.7782212305366</v>
+        <v>301.0224619425389</v>
       </c>
       <c r="G16" t="n">
         <v>241.7782212305366</v>
@@ -5461,25 +5461,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1734.57685067423</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U16" t="n">
-        <v>1445.473983799873</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="V16" t="n">
-        <v>1190.789495593986</v>
+        <v>1220.870226851287</v>
       </c>
       <c r="W16" t="n">
-        <v>901.3723255570255</v>
+        <v>931.4530568143261</v>
       </c>
       <c r="X16" t="n">
-        <v>760.6005333687956</v>
+        <v>703.4635059163088</v>
       </c>
       <c r="Y16" t="n">
-        <v>539.8079542252655</v>
+        <v>482.6709267727787</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5513,52 +5513,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1482.778354750621</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M17" t="n">
-        <v>2016.310259422546</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N17" t="n">
-        <v>2877.428556330836</v>
+        <v>3051.398683947134</v>
       </c>
       <c r="O17" t="n">
-        <v>3757.393206660291</v>
+        <v>3554.371154826471</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="18">
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5610,22 +5610,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>909.2731541783409</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C19" t="n">
-        <v>740.336971250434</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D19" t="n">
-        <v>590.2203318380982</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E19" t="n">
-        <v>590.2203318380982</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F19" t="n">
-        <v>443.3303843401878</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G19" t="n">
-        <v>275.6275477149068</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>129.4103609327645</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5710,13 +5710,13 @@
         <v>909.2731541783409</v>
       </c>
       <c r="W19" t="n">
-        <v>909.2731541783409</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X19" t="n">
-        <v>909.2731541783409</v>
+        <v>444.9123359039152</v>
       </c>
       <c r="Y19" t="n">
-        <v>909.2731541783409</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="20">
@@ -5729,16 +5729,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551634</v>
       </c>
       <c r="G20" t="n">
         <v>435.1415336001585</v>
@@ -5747,7 +5747,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J20" t="n">
         <v>451.8458144277729</v>
@@ -5756,40 +5756,40 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1586.925993846824</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M20" t="n">
-        <v>2120.457898518748</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N20" t="n">
-        <v>2667.236715577531</v>
+        <v>3051.398683947134</v>
       </c>
       <c r="O20" t="n">
-        <v>3547.201365906985</v>
+        <v>3865.782086996754</v>
       </c>
       <c r="P20" t="n">
-        <v>4260.556453353931</v>
+        <v>4260.556453353932</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.03465586292</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5826,7 +5826,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J21" t="n">
         <v>189.2383039390118</v>
@@ -5835,7 +5835,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>730.2297869963112</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="C22" t="n">
-        <v>561.2936040684043</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="D22" t="n">
-        <v>411.1769646560685</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="E22" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="F22" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
@@ -5932,28 +5932,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1677.746525499872</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>1455.979910069399</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1455.979910069399</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>1201.295421863512</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W22" t="n">
-        <v>911.8782518265509</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X22" t="n">
-        <v>911.8782518265509</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y22" t="n">
-        <v>911.8782518265509</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="23">
@@ -5966,67 +5966,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.213983755163</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001594</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277713</v>
       </c>
       <c r="K23" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563068</v>
       </c>
       <c r="L23" t="n">
-        <v>1236.699401366028</v>
+        <v>1557.603359811474</v>
       </c>
       <c r="M23" t="n">
-        <v>2215.249704195857</v>
+        <v>2091.135264483396</v>
       </c>
       <c r="N23" t="n">
-        <v>3195.001976422504</v>
+        <v>2637.914081542174</v>
       </c>
       <c r="O23" t="n">
-        <v>4074.966626751958</v>
+        <v>3482.142110232738</v>
       </c>
       <c r="P23" t="n">
-        <v>4469.740993109136</v>
+        <v>4195.497197679681</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188668</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
@@ -6042,52 +6042,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973202</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161932</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549419</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494864</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763713</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390108</v>
       </c>
       <c r="K24" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193563</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320195</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.47698845435</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008802</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426854</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902955</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6096,7 +6096,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U24" t="n">
         <v>2043.809373447819</v>
@@ -6105,7 +6105,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X24" t="n">
         <v>1346.568408282342</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>589.4655956925556</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C25" t="n">
-        <v>589.4655956925556</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="D25" t="n">
-        <v>589.4655956925556</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="E25" t="n">
-        <v>507.4794957532405</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="F25" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="G25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J25" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953294</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442048</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482926997</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892247</v>
       </c>
       <c r="N25" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598111</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518523</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952181</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104695</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862223</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689049</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258575</v>
       </c>
       <c r="U25" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384219</v>
       </c>
       <c r="V25" t="n">
-        <v>999.1036114208126</v>
+        <v>909.2731541783318</v>
       </c>
       <c r="W25" t="n">
-        <v>999.1036114208126</v>
+        <v>619.8559841413712</v>
       </c>
       <c r="X25" t="n">
-        <v>771.1140605227953</v>
+        <v>391.8664332433539</v>
       </c>
       <c r="Y25" t="n">
-        <v>771.1140605227953</v>
+        <v>264.4972173763014</v>
       </c>
     </row>
     <row r="26">
@@ -6206,28 +6206,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,10 +6236,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1176.533952578166</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1804.131916132773</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O27" t="n">
-        <v>2356.04164637206</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P27" t="n">
-        <v>2356.04164637206</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6361,22 +6361,22 @@
         <v>926.9575315319328</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656822</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G28" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H28" t="n">
-        <v>151.3734194384023</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6449,34 +6449,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>139.234765840794</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>634.5603720565526</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1231.938859683105</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G31" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384023</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6686,7 +6686,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,16 +6710,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6780,19 +6780,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N33" t="n">
-        <v>1963.765362972544</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O33" t="n">
-        <v>1963.765362972544</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P33" t="n">
         <v>2319.799627685893</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656812</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
         <v>411.2214559580113</v>
@@ -6853,13 +6853,13 @@
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>198.0944824954149</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L34" t="n">
         <v>898.2659412311323</v>
@@ -6880,13 +6880,13 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
         <v>1978.840049838285</v>
@@ -6895,13 +6895,13 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="35">
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,16 +6947,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7017,25 +7017,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>710.2486053718725</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7072,22 +7072,22 @@
         <v>926.9575315319321</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150019</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E37" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580109</v>
+        <v>411.221455958011</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345471</v>
+        <v>268.5553036345472</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384016</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7096,10 +7096,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7120,7 +7120,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1965.532750177311</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O39" t="n">
-        <v>1965.532750177311</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P39" t="n">
-        <v>2389.155899672379</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,46 +7306,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
         <v>2496.057455973196</v>
@@ -7354,7 +7354,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547834</v>
@@ -7394,52 +7394,52 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168608</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192723</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111756</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075889</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.6115533324</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014798</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355962</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.42229106804</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694742</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852294</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
@@ -7464,58 +7464,58 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>943.3991132778466</v>
+        <v>943.3991132778464</v>
       </c>
       <c r="C42" t="n">
-        <v>768.9460839967196</v>
+        <v>768.9460839967194</v>
       </c>
       <c r="D42" t="n">
-        <v>620.0116743354683</v>
+        <v>620.0116743354681</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300127</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568976</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028055</v>
       </c>
       <c r="H42" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756282</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468516</v>
       </c>
       <c r="L42" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962614</v>
       </c>
       <c r="M42" t="n">
-        <v>1176.533952578166</v>
+        <v>1501.840175011091</v>
       </c>
       <c r="N42" t="n">
-        <v>1804.131916132773</v>
+        <v>2129.438138565703</v>
       </c>
       <c r="O42" t="n">
-        <v>2356.04164637206</v>
+        <v>2129.438138565703</v>
       </c>
       <c r="P42" t="n">
-        <v>2356.04164637206</v>
+        <v>2553.061288060774</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.061288060774</v>
       </c>
       <c r="R42" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.061288060774</v>
       </c>
       <c r="S42" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.850501963387</v>
       </c>
       <c r="T42" t="n">
         <v>2244.643795685161</v>
@@ -7533,7 +7533,7 @@
         <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.614450297914</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319364</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656851</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>656.964603115005</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942675</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580127</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345483</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384022</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954154</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380743</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311353</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979291</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.76911765642</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382526</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973205</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717224</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931282</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547843</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532439</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838293</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594062</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518757</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582395</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400521</v>
       </c>
     </row>
     <row r="44">
@@ -7634,46 +7634,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192721</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111756</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075474</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332359</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014756</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.89852635592</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291067999</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694701</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852252</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
         <v>4405.252601474784</v>
@@ -7701,58 +7701,58 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.3991132778466</v>
+        <v>943.3991132778464</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9460839967196</v>
+        <v>768.9460839967194</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0116743354683</v>
+        <v>620.0116743354681</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300127</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568976</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028055</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756282</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468516</v>
       </c>
       <c r="L45" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962614</v>
       </c>
       <c r="M45" t="n">
-        <v>924.8344286397182</v>
+        <v>1268.578514636206</v>
       </c>
       <c r="N45" t="n">
-        <v>1552.432392194325</v>
+        <v>1896.176478190818</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190818</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685889</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060774</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.061288060774</v>
       </c>
       <c r="S45" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.850501963387</v>
       </c>
       <c r="T45" t="n">
         <v>2244.643795685161</v>
@@ -7770,7 +7770,7 @@
         <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.614450297914</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319364</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656812</v>
+        <v>782.5512955656851</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150019</v>
+        <v>656.964603115005</v>
       </c>
       <c r="E46" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942675</v>
       </c>
       <c r="F46" t="n">
-        <v>411.221455958011</v>
+        <v>411.2214559580127</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345483</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384022</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954154</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380743</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311352</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979291</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.76911765642</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382525</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973205</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717224</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931283</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547843</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.38532953244</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838293</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594062</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518757</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.338681582395</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400521</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8295,10 +8295,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>327.4218609627889</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>288.0478149561031</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>126.3855966773243</v>
+        <v>39.48321557772681</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,10 +9161,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9173,19 +9173,19 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>317.5146261106144</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>248.8400772687159</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9404,7 +9404,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>29.61882225792135</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9413,10 +9413,10 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>314.5564971416997</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9638,28 +9638,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836477071</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.01747575565625</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9884,7 +9884,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10601,13 +10601,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>-5.400124791776761e-13</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>-2.243354900368079e-13</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>-3.922781814099309e-11</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11297,7 +11297,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>-4.200728653813712e-11</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22553,19 +22553,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>112.1107301218879</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>95.39272295401911</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,7 +22592,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>17.14044524165209</v>
       </c>
     </row>
     <row r="3">
@@ -22702,13 +22702,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22717,16 +22717,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22753,7 +22753,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22765,13 +22765,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>244.3674147993489</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>127.3581746262463</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,16 +23473,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>218.0583944858687</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,22 +23650,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>107.3740099541459</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>86.34558112268951</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>62.84158719031167</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23950,10 +23950,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>52.51544363394669</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,22 +24124,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>2.890206802706103</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>65.26772370664726</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>144.7550149143209</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983834</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24424,13 +24424,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>92.48912964371281</v>
       </c>
     </row>
     <row r="26">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1311342.501450107</v>
+        <v>1311342.501450108</v>
       </c>
     </row>
     <row r="6">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1337852.539819535</v>
+        <v>1337852.539819534</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1337852.539819535</v>
+        <v>1337852.539819534</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>89266.66910111633</v>
+        <v>89266.66910111639</v>
       </c>
       <c r="C2" t="n">
         <v>102630.2212330354</v>
@@ -26320,19 +26320,19 @@
         <v>102630.2212330354</v>
       </c>
       <c r="E2" t="n">
+        <v>99270.44672174576</v>
+      </c>
+      <c r="F2" t="n">
         <v>99270.44672174579</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>99270.44672174577</v>
       </c>
-      <c r="G2" t="n">
-        <v>99270.44672174579</v>
-      </c>
       <c r="H2" t="n">
-        <v>99270.44672174573</v>
+        <v>99270.44672174571</v>
       </c>
       <c r="I2" t="n">
-        <v>99270.44672174574</v>
+        <v>99270.44672174577</v>
       </c>
       <c r="J2" t="n">
         <v>102630.2212330354</v>
@@ -26353,7 +26353,7 @@
         <v>102630.2212330355</v>
       </c>
       <c r="P2" t="n">
-        <v>102630.2212330354</v>
+        <v>102630.2212330355</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934068</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-1.927594776473901e-09</v>
       </c>
       <c r="J3" t="n">
-        <v>395954.8515672232</v>
+        <v>395954.8515672268</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,16 +26396,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389447</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363174</v>
+        <v>19427.71799363663</v>
       </c>
       <c r="P3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131186.7918361227</v>
+        <v>131186.7918361228</v>
       </c>
       <c r="C4" t="n">
         <v>192206.5963924298</v>
       </c>
       <c r="D4" t="n">
-        <v>192206.5963924297</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="E4" t="n">
+        <v>21619.60799709188</v>
+      </c>
+      <c r="F4" t="n">
+        <v>21619.60799709184</v>
+      </c>
+      <c r="G4" t="n">
         <v>21619.60799709187</v>
       </c>
-      <c r="F4" t="n">
-        <v>21619.60799709181</v>
-      </c>
-      <c r="G4" t="n">
-        <v>21619.60799709188</v>
-      </c>
       <c r="H4" t="n">
-        <v>21619.60799709184</v>
+        <v>21619.60799709189</v>
       </c>
       <c r="I4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709215</v>
       </c>
       <c r="J4" t="n">
+        <v>12448.5078997516</v>
+      </c>
+      <c r="K4" t="n">
+        <v>12448.50789975159</v>
+      </c>
+      <c r="L4" t="n">
         <v>12448.50789975158</v>
       </c>
-      <c r="K4" t="n">
-        <v>12448.5078997516</v>
-      </c>
-      <c r="L4" t="n">
-        <v>12448.5078997516</v>
-      </c>
       <c r="M4" t="n">
+        <v>12448.50789975159</v>
+      </c>
+      <c r="N4" t="n">
         <v>12448.50789975157</v>
       </c>
-      <c r="N4" t="n">
-        <v>12448.50789975161</v>
-      </c>
       <c r="O4" t="n">
-        <v>12448.50789975157</v>
+        <v>12448.50789975082</v>
       </c>
       <c r="P4" t="n">
-        <v>12448.50789975161</v>
+        <v>12448.50789975088</v>
       </c>
     </row>
     <row r="5">
@@ -26485,10 +26485,10 @@
         <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371357</v>
       </c>
       <c r="J5" t="n">
         <v>103164.1158539154</v>
@@ -26506,10 +26506,10 @@
         <v>103164.1158539154</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>103164.1158539155</v>
       </c>
       <c r="P5" t="n">
-        <v>103164.1158539154</v>
+        <v>103164.1158539155</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-714747.0800129602</v>
+        <v>-715014.3510555986</v>
       </c>
       <c r="C6" t="n">
         <v>-172435.4532228038</v>
@@ -26528,40 +26528,40 @@
         <v>-172435.4532228038</v>
       </c>
       <c r="E6" t="n">
-        <v>-746110.0935224664</v>
+        <v>-746177.2890126923</v>
       </c>
       <c r="F6" t="n">
-        <v>-18732.67952905969</v>
+        <v>-18799.87501928552</v>
       </c>
       <c r="G6" t="n">
-        <v>-18732.67952905975</v>
+        <v>-18799.87501928554</v>
       </c>
       <c r="H6" t="n">
-        <v>-18732.67952905977</v>
+        <v>-18799.87501928565</v>
       </c>
       <c r="I6" t="n">
-        <v>-18732.67952905978</v>
+        <v>-18799.87501928214</v>
       </c>
       <c r="J6" t="n">
-        <v>-408937.2540878548</v>
+        <v>-408937.2540878584</v>
       </c>
       <c r="K6" t="n">
-        <v>-12982.40252063144</v>
+        <v>-12982.40252063138</v>
       </c>
       <c r="L6" t="n">
         <v>-12982.40252063153</v>
       </c>
       <c r="M6" t="n">
-        <v>-142624.7173595763</v>
+        <v>-142624.7173595764</v>
       </c>
       <c r="N6" t="n">
-        <v>-12982.40252063164</v>
+        <v>-12982.40252063156</v>
       </c>
       <c r="O6" t="n">
-        <v>-32410.12051426322</v>
+        <v>-32410.12051426744</v>
       </c>
       <c r="P6" t="n">
-        <v>-12982.40252063161</v>
+        <v>-12982.40252063095</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203906</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203906</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26756,7 +26756,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593294</v>
       </c>
       <c r="J3" t="n">
         <v>1367.975500341674</v>
@@ -26774,10 +26774,10 @@
         <v>1367.975500341674</v>
       </c>
       <c r="O3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341682</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341682</v>
       </c>
     </row>
     <row r="4">
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26941,13 +26941,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203905</v>
       </c>
       <c r="P2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762117</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,10 +26978,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-3.628818965085978e-12</v>
       </c>
       <c r="J3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483805</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-12</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>652.4826302492737</v>
+        <v>652.4826302492735</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>209.6007249451888</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>369.0974934144015</v>
       </c>
     </row>
     <row r="3">
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27588,7 +27588,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,10 +27597,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>34.1956645174788</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>319.6258132655379</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>91.78733912036091</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>136.6435220329195</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>78.44210324364911</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27856,19 +27856,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>396.7839776541688</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>30.12114705762093</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,10 +28011,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28026,13 +28026,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.7182761106009821</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28065,7 +28065,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>187.2620656957736</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28144,7 +28144,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-4.831690603168681e-13</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28275,7 +28275,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.602510716717613e-12</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="35">
@@ -30037,10 +30037,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203906</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203906</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203906</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203906</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203906</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203906</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203906</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203906</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203906</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203906</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203906</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203906</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203906</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203906</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203906</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203906</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203906</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203906</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203906</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203906</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203906</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203906</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203906</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203906</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203906</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203906</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203906</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203906</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203906</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203906</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203906</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203906</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203906</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203906</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203906</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203906</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203906</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203906</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203906</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203906</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203906</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203906</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203906</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203906</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203906</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203906</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203906</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203906</v>
       </c>
     </row>
   </sheetData>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32087,7 +32087,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
         <v>557.708647897025</v>
@@ -32555,10 +32555,10 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N21" t="n">
         <v>609.6478166837925</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681579</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844648</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974792</v>
       </c>
       <c r="J23" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953973</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003785</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623163</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574961</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990094989</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099027</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746386</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781669</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563557</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806908</v>
       </c>
       <c r="T23" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451112</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345262</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502556</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798522</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752223</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026428</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353141</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138774</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233618</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837898</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970226</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002907</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987473</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905535</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238298</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898457</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462209</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430529</v>
       </c>
       <c r="H25" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311872</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451741993</v>
       </c>
       <c r="J25" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297384</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702014</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098807</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316419</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883102</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023085989</v>
       </c>
       <c r="P25" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802159</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895873</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712177</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553021</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112258</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.107191150878029</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>359.7096985496632</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>301.9817606876396</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>181.9330708814852</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>359.7096985496632</v>
       </c>
       <c r="O30" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>340.4395077511227</v>
       </c>
       <c r="P33" t="n">
-        <v>493.6049778318539</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33737,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>610.054682604365</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>359.7096985496632</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>370.9642309107744</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>305.5427724581384</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348466</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135374</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067244</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.754615566331</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817618</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162613</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175733</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159485</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460083</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236555</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669258</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043746</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292908</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651542</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078772</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659467</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521117</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420771</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422614</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473111</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>575.5951359911869</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071831</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214732</v>
       </c>
       <c r="Q42" t="n">
-        <v>338.9915131655318</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742471</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937741</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275966</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189918</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121583</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869319</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796272</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355195</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588175</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392068</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106811</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920078</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417332</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.564300551594</v>
       </c>
       <c r="R43" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670485</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532792</v>
       </c>
       <c r="T43" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099328</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467229</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348466</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135374</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067244</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.754615566331</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817618</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162613</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175733</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159485</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460083</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236555</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669258</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043746</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292908</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651542</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078772</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659467</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521117</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420771</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422614</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473111</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>339.9772972286771</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071831</v>
       </c>
       <c r="O45" t="n">
-        <v>452.8027404478649</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214732</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485313</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742471</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937741</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275966</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189918</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121583</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869319</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796272</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355195</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588175</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392068</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106811</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920078</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417332</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.564300551594</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670485</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532792</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099328</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467229</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34793,7 +34793,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>365.2844632307155</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35264,13 +35264,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>840.3496503690146</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35571,7 +35571,7 @@
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701997</v>
       </c>
       <c r="M13" t="n">
         <v>347.6333793934838</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>665.3067125075511</v>
+        <v>578.4043314079536</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35735,7 +35735,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
         <v>415.1124034525806</v>
@@ -35881,10 +35881,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
         <v>873.2513289427826</v>
@@ -35893,19 +35893,19 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>869.8164615235258</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>647.6020634880878</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36124,7 +36124,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>485.2089366502535</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
         <v>538.9211158302268</v>
@@ -36133,10 +36133,10 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>822.6094980299188</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
         <v>463.1092954636242</v>
@@ -36203,10 +36203,10 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N21" t="n">
         <v>478.3061046004592</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407847</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265627</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923291</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302234</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129081</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>852.755584535923</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908517</v>
       </c>
       <c r="Q23" t="n">
-        <v>251.8117805593757</v>
+        <v>463.1092954636221</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.329618415206</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597614</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609551</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340032</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013436</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004565</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525782</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859605</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127258</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306563</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443186</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701968</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934825</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675388</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226386</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451094</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789295</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>161.9999866016181</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36759,13 +36759,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N28" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>44.09163190712619</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36996,13 +36996,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>197.8432633066783</v>
       </c>
       <c r="P33" t="n">
-        <v>359.6305704175236</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37233,13 +37233,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>471.5003028244908</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,31 +37616,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>165.5609983721169</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,19 +37701,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236318535</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396448</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367812</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146274</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107903006</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193575</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243215</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683859</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924763</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902013</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,31 +37853,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754104</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496679024</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674369</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>433.4611020691686</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238498</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071429</v>
       </c>
       <c r="Q42" t="n">
-        <v>199.0097390795103</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>105.3311307549935</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016757</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111728</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930865</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819488</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980866</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986658</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919386</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236318535</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396448</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367392</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146274</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107903006</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193575</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243215</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683859</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924763</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902425</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754104</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496679024</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674369</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>197.8432633066588</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238498</v>
       </c>
       <c r="O45" t="n">
-        <v>310.2064960034205</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071429</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625098</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.3311307549931</v>
+        <v>105.3311307549935</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016757</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111728</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930865</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819488</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980865</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986657</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.6869047919386</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
